--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E466"/>
+  <dimension ref="A1:E476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10039,6 +10039,210 @@
       <c r="E466" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>354.9953846153846</v>
+      </c>
+      <c r="C467" t="n">
+        <v>358.6266666666667</v>
+      </c>
+      <c r="D467" t="n">
+        <v>424.8642857142857</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>372.7523076923077</v>
+      </c>
+      <c r="C468" t="n">
+        <v>373.5733333333333</v>
+      </c>
+      <c r="D468" t="n">
+        <v>436.5642857142857</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>359.1723076923077</v>
+      </c>
+      <c r="C469" t="n">
+        <v>363.4733333333333</v>
+      </c>
+      <c r="D469" t="n">
+        <v>430.4542857142857</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="n">
+        <v>435.5114285714286</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>377.9023076923077</v>
+      </c>
+      <c r="C471" t="n">
+        <v>377.56</v>
+      </c>
+      <c r="D471" t="n">
+        <v>441.5571428571428</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>382.96</v>
+      </c>
+      <c r="C472" t="n">
+        <v>390.5366666666667</v>
+      </c>
+      <c r="D472" t="n">
+        <v>451.6085714285715</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>373.9146153846153</v>
+      </c>
+      <c r="C473" t="n">
+        <v>372.9233333333333</v>
+      </c>
+      <c r="D473" t="n">
+        <v>436.5285714285715</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>375.3738461538462</v>
+      </c>
+      <c r="C474" t="n">
+        <v>360.3333333333333</v>
+      </c>
+      <c r="D474" t="n">
+        <v>436.22</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>368.3069230769231</v>
+      </c>
+      <c r="C475" t="n">
+        <v>359.33</v>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>376.5184615384616</v>
+      </c>
+      <c r="C476" t="n">
+        <v>380.5266666666667</v>
+      </c>
+      <c r="D476" t="n">
+        <v>440.8971428571429</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B536"/>
+  <dimension ref="A1:B546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15421,6 +15625,106 @@
       </c>
       <c r="B536" t="n">
         <v>0.89</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -15589,28 +15893,28 @@
         <v>0.0688</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01787942688225683</v>
+        <v>-0.009106370696684195</v>
       </c>
       <c r="J2" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="K2" t="n">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002824450905024589</v>
+        <v>7.353519765085359e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.873126557853297</v>
+        <v>5.915165794618828</v>
       </c>
       <c r="N2" t="n">
-        <v>59.57132752674138</v>
+        <v>60.73184829155714</v>
       </c>
       <c r="O2" t="n">
-        <v>7.718246402308064</v>
+        <v>7.793064114426183</v>
       </c>
       <c r="P2" t="n">
-        <v>377.7062548780468</v>
+        <v>377.9696102428456</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15666,28 +15970,28 @@
         <v>0.0672</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.02357138575876749</v>
+        <v>-0.04550945853502286</v>
       </c>
       <c r="J3" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="K3" t="n">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003867862119866228</v>
+        <v>0.001449507848576115</v>
       </c>
       <c r="M3" t="n">
-        <v>6.604057901475374</v>
+        <v>6.679451516651444</v>
       </c>
       <c r="N3" t="n">
-        <v>76.24558715627934</v>
+        <v>77.51326733699958</v>
       </c>
       <c r="O3" t="n">
-        <v>8.731871915934139</v>
+        <v>8.804161932688402</v>
       </c>
       <c r="P3" t="n">
-        <v>376.9022562440524</v>
+        <v>377.1151050327482</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15743,28 +16047,28 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08090548045690985</v>
+        <v>0.06367027789229904</v>
       </c>
       <c r="J4" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="K4" t="n">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004267468301857757</v>
+        <v>0.002715155458854923</v>
       </c>
       <c r="M4" t="n">
-        <v>6.909287612303708</v>
+        <v>6.907342075502715</v>
       </c>
       <c r="N4" t="n">
-        <v>81.03898398247347</v>
+        <v>80.77191947292722</v>
       </c>
       <c r="O4" t="n">
-        <v>9.002165516278485</v>
+        <v>8.987319927148873</v>
       </c>
       <c r="P4" t="n">
-        <v>439.5342066292979</v>
+        <v>439.7014560245049</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15801,7 +16105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E466"/>
+  <dimension ref="A1:E476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28019,6 +28323,264 @@
         </is>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-35.018369352250396,173.85901793558543</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-35.0189552191715,173.85957656611575</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-35.01885752482842,173.86072123548377</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-35.01827605830627,173.85917610362674</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-35.01885787678,173.85968986425164</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-35.01876906509984,173.86079110880416</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-35.01834740693345,173.85905514114836</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-35.01892365454473,173.85961330465753</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-35.01881526074078,173.86075461942212</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-35.01877702539692,173.86078482106458</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-35.01824900043807,173.85922197667628</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-35.01883191300243,173.85972008378042</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-35.01873131578976,173.8608209264943</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-35.018222427533736,173.85926702747577</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-35.01874740042134,173.85981844871984</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-35.01865532030436,173.86088095424242</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-35.01826995159545,173.8591864567553</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-35.0188621100039,173.85968493715274</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-35.01876933512349,173.86079089551586</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-35.018262284863305,173.85919945469146</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-35.01894410425603,173.85958950293698</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-35.018771668127826,173.86078905270492</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-35.01829941414328,173.85913650683554</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-35.018950638610804,173.8595818975015</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-35.01825627110514,173.8592096502243</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-35.01881259212641,173.8597425715445</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-35.018736305827744,173.86081698492998</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -15738,7 +15738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15829,35 +15829,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15916,27 +15921,28 @@
       <c r="P2" t="n">
         <v>377.9696102428456</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.85585577334888 -35.020234436946005, 173.8641158310509 -35.0153621969835)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.8558557733489</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.02023443694601</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.8641158310509</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.0153621969835</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.8599858021999</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.01779831696476</v>
       </c>
     </row>
@@ -15993,27 +15999,28 @@
       <c r="P3" t="n">
         <v>377.1151050327482</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.85685803786245 -35.02129079770241, 173.86388523963822 -35.0152530997372)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.8568580378625</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.02129079770241</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.8638852396382</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.0152530997372</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.8603716387503</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.01827194871981</v>
       </c>
     </row>
@@ -16070,27 +16077,28 @@
       <c r="P4" t="n">
         <v>439.7014560245049</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.85818381136346 -35.02206975283138, 173.86371868149863 -35.015062548416054)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.8581838113635</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.02206975283138</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.8637186814986</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.01506254841605</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.8609512464311</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.01856615062371</v>
       </c>
     </row>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E476"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10241,6 +10241,69 @@
         <v>440.8971428571429</v>
       </c>
       <c r="E476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>377.0715384615385</v>
+      </c>
+      <c r="C477" t="n">
+        <v>373.0233333333333</v>
+      </c>
+      <c r="D477" t="n">
+        <v>452.07</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>374.6376923076923</v>
+      </c>
+      <c r="C478" t="n">
+        <v>366.6433333333333</v>
+      </c>
+      <c r="D478" t="n">
+        <v>436.1557142857143</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>380.4661538461539</v>
+      </c>
+      <c r="C479" t="n">
+        <v>386.7366666666667</v>
+      </c>
+      <c r="D479" t="n">
+        <v>445.12</v>
+      </c>
+      <c r="E479" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10257,7 +10320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15725,6 +15788,46 @@
       </c>
       <c r="B546" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -15898,28 +16001,28 @@
         <v>0.0688</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009106370696684195</v>
+        <v>-0.009552727628593825</v>
       </c>
       <c r="J2" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K2" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L2" t="n">
-        <v>7.353519765085359e-05</v>
+        <v>8.203116317129222e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.915165794618828</v>
+        <v>5.889956244675075</v>
       </c>
       <c r="N2" t="n">
-        <v>60.73184829155714</v>
+        <v>60.36172757235855</v>
       </c>
       <c r="O2" t="n">
-        <v>7.793064114426183</v>
+        <v>7.769281020297731</v>
       </c>
       <c r="P2" t="n">
-        <v>377.9696102428456</v>
+        <v>377.9739805122202</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15976,28 +16079,28 @@
         <v>0.0672</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04550945853502286</v>
+        <v>-0.04610708571685885</v>
       </c>
       <c r="J3" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K3" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001449507848576115</v>
+        <v>0.001499978828507387</v>
       </c>
       <c r="M3" t="n">
-        <v>6.679451516651444</v>
+        <v>6.686422049666278</v>
       </c>
       <c r="N3" t="n">
-        <v>77.51326733699958</v>
+        <v>77.46599386333081</v>
       </c>
       <c r="O3" t="n">
-        <v>8.804161932688402</v>
+        <v>8.801476800135919</v>
       </c>
       <c r="P3" t="n">
-        <v>377.1151050327482</v>
+        <v>377.1207801191733</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16054,28 +16157,28 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06367027789229904</v>
+        <v>0.06769563895245483</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K4" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002715155458854923</v>
+        <v>0.003098222627934244</v>
       </c>
       <c r="M4" t="n">
-        <v>6.907342075502715</v>
+        <v>6.903904915902348</v>
       </c>
       <c r="N4" t="n">
-        <v>80.77191947292722</v>
+        <v>80.57988132543861</v>
       </c>
       <c r="O4" t="n">
-        <v>8.987319927148873</v>
+        <v>8.976629730886676</v>
       </c>
       <c r="P4" t="n">
-        <v>439.7014560245049</v>
+        <v>439.6619266467776</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16113,7 +16216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E476"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28589,6 +28692,87 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-35.01825336526336,173.85921457669426</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-35.018861458738705,173.85968569516797</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-35.01865183159675,173.86088370991953</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-35.018266152582335,173.85919289748307</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-35.0189030094494,173.85963733377105</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-35.018772154170385,173.86078866878594</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-35.0182355300994,173.85924481383807</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-35.01877214852662,173.85978964421193</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-35.01870437822336,173.86084220410837</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10306,6 +10306,69 @@
       <c r="E479" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>363.6438461538461</v>
+      </c>
+      <c r="C480" t="n">
+        <v>361.4833333333333</v>
+      </c>
+      <c r="D480" t="n">
+        <v>433.94</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>382.1946153846154</v>
+      </c>
+      <c r="C481" t="n">
+        <v>382.1866666666667</v>
+      </c>
+      <c r="D481" t="n">
+        <v>446.8514285714285</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>376.88</v>
+      </c>
+      <c r="C482" t="n">
+        <v>380.1333333333333</v>
+      </c>
+      <c r="D482" t="n">
+        <v>444.6014285714285</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10320,7 +10383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B550"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15828,6 +15891,36 @@
       </c>
       <c r="B550" t="n">
         <v>-0.14</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -16001,28 +16094,28 @@
         <v>0.0688</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009552727628593825</v>
+        <v>-0.01410975812626967</v>
       </c>
       <c r="J2" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K2" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L2" t="n">
-        <v>8.203116317129222e-05</v>
+        <v>0.0001800389996858831</v>
       </c>
       <c r="M2" t="n">
-        <v>5.889956244675075</v>
+        <v>5.894480865037083</v>
       </c>
       <c r="N2" t="n">
-        <v>60.36172757235855</v>
+        <v>60.44476130698074</v>
       </c>
       <c r="O2" t="n">
-        <v>7.769281020297731</v>
+        <v>7.774622904487441</v>
       </c>
       <c r="P2" t="n">
-        <v>377.9739805122202</v>
+        <v>378.0192642048797</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16079,28 +16172,28 @@
         <v>0.0672</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04610708571685885</v>
+        <v>-0.04783979727612681</v>
       </c>
       <c r="J3" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K3" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001499978828507387</v>
+        <v>0.001625253584978781</v>
       </c>
       <c r="M3" t="n">
-        <v>6.686422049666278</v>
+        <v>6.697945568406206</v>
       </c>
       <c r="N3" t="n">
-        <v>77.46599386333081</v>
+        <v>77.54013723668454</v>
       </c>
       <c r="O3" t="n">
-        <v>8.801476800135919</v>
+        <v>8.805687777606275</v>
       </c>
       <c r="P3" t="n">
-        <v>377.1207801191733</v>
+        <v>377.1378299513285</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16157,28 +16250,28 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06769563895245483</v>
+        <v>0.06820809818049914</v>
       </c>
       <c r="J4" t="n">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K4" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003098222627934244</v>
+        <v>0.003180897969197183</v>
       </c>
       <c r="M4" t="n">
-        <v>6.903904915902348</v>
+        <v>6.893623454160969</v>
       </c>
       <c r="N4" t="n">
-        <v>80.57988132543861</v>
+        <v>80.25721676384678</v>
       </c>
       <c r="O4" t="n">
-        <v>8.976629730886676</v>
+        <v>8.958639225007712</v>
       </c>
       <c r="P4" t="n">
-        <v>439.6619266467776</v>
+        <v>439.6568133129246</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16216,7 +16309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28773,6 +28866,87 @@
         </is>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-35.018323913711555,173.85909497094892</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-35.018936614712615,173.85959822012902</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-35.018788906436754,173.8607754363764</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-35.01822644883363,173.85926020990422</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-35.01880178111758,173.8597551545809</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-35.018691287472045,173.86085254430716</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-35.01825437159802,173.85921287058716</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-35.018815153770866,173.85973959002132</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-35.01870829896802,173.860839107167</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10369,6 +10369,27 @@
       <c r="E482" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>372.8961538461539</v>
+      </c>
+      <c r="C483" t="n">
+        <v>362.98</v>
+      </c>
+      <c r="D483" t="n">
+        <v>435.5014285714286</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10383,7 +10404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15921,6 +15942,16 @@
       </c>
       <c r="B553" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -16094,28 +16125,28 @@
         <v>0.0688</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01410975812626967</v>
+        <v>-0.01618182859541663</v>
       </c>
       <c r="J2" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001800389996858831</v>
+        <v>0.0002377016796341058</v>
       </c>
       <c r="M2" t="n">
-        <v>5.894480865037083</v>
+        <v>5.892357952713832</v>
       </c>
       <c r="N2" t="n">
-        <v>60.44476130698074</v>
+        <v>60.36023518011655</v>
       </c>
       <c r="O2" t="n">
-        <v>7.774622904487441</v>
+        <v>7.769184975280004</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0192642048797</v>
+        <v>378.0399268572951</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16172,28 +16203,28 @@
         <v>0.0672</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04783979727612681</v>
+        <v>-0.05346896328730474</v>
       </c>
       <c r="J3" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001625253584978781</v>
+        <v>0.002029261997025134</v>
       </c>
       <c r="M3" t="n">
-        <v>6.697945568406206</v>
+        <v>6.714011998923926</v>
       </c>
       <c r="N3" t="n">
-        <v>77.54013723668454</v>
+        <v>77.7377204546562</v>
       </c>
       <c r="O3" t="n">
-        <v>8.805687777606275</v>
+        <v>8.81689970764419</v>
       </c>
       <c r="P3" t="n">
-        <v>377.1378299513285</v>
+        <v>377.1935604485095</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16250,28 +16281,28 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06820809818049914</v>
+        <v>0.06567498045203432</v>
       </c>
       <c r="J4" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003180897969197183</v>
+        <v>0.002960486684050245</v>
       </c>
       <c r="M4" t="n">
-        <v>6.893623454160969</v>
+        <v>6.892067349986054</v>
       </c>
       <c r="N4" t="n">
-        <v>80.25721676384678</v>
+        <v>80.15698596509228</v>
       </c>
       <c r="O4" t="n">
-        <v>8.958639225007712</v>
+        <v>8.95304339122135</v>
       </c>
       <c r="P4" t="n">
-        <v>439.6568133129246</v>
+        <v>439.6819663837242</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16309,7 +16340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E482"/>
+  <dimension ref="A1:E483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28947,6 +28978,33 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-35.01827530254528,173.8591773849207</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-35.01892686745084,173.85960956510988</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-35.01877710100354,173.86078476134384</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E483"/>
+  <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10388,6 +10388,69 @@
         <v>435.5014285714286</v>
       </c>
       <c r="E483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>377.3346153846153</v>
+      </c>
+      <c r="C484" t="n">
+        <v>372.66</v>
+      </c>
+      <c r="D484" t="n">
+        <v>441.2228571428572</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>382.27</v>
+      </c>
+      <c r="C485" t="n">
+        <v>382.3866666666667</v>
+      </c>
+      <c r="D485" t="n">
+        <v>444.0785714285714</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>378.0923076923077</v>
+      </c>
+      <c r="C486" t="n">
+        <v>373.89</v>
+      </c>
+      <c r="D486" t="n">
+        <v>439.0142857142857</v>
+      </c>
+      <c r="E486" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10404,7 +10467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B554"/>
+  <dimension ref="A1:B557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15952,6 +16015,36 @@
       </c>
       <c r="B554" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -16125,28 +16218,28 @@
         <v>0.0688</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01618182859541663</v>
+        <v>-0.01411640593966377</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K2" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002377016796341058</v>
+        <v>0.0001832828881892512</v>
       </c>
       <c r="M2" t="n">
-        <v>5.892357952713832</v>
+        <v>5.864737365793789</v>
       </c>
       <c r="N2" t="n">
-        <v>60.36023518011655</v>
+        <v>60.00773267432999</v>
       </c>
       <c r="O2" t="n">
-        <v>7.769184975280004</v>
+        <v>7.746465818315471</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0399268572951</v>
+        <v>378.0193056792861</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16203,28 +16296,28 @@
         <v>0.0672</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05346896328730474</v>
+        <v>-0.05282759253243334</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K3" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002029261997025134</v>
+        <v>0.002005435723095528</v>
       </c>
       <c r="M3" t="n">
-        <v>6.714011998923926</v>
+        <v>6.69487278357408</v>
       </c>
       <c r="N3" t="n">
-        <v>77.7377204546562</v>
+        <v>77.34577934898397</v>
       </c>
       <c r="O3" t="n">
-        <v>8.81689970764419</v>
+        <v>8.79464492455403</v>
       </c>
       <c r="P3" t="n">
-        <v>377.1935604485095</v>
+        <v>377.1872001891374</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16281,28 +16374,28 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06567498045203432</v>
+        <v>0.06574949694709796</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K4" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002960486684050245</v>
+        <v>0.003006802763453664</v>
       </c>
       <c r="M4" t="n">
-        <v>6.892067349986054</v>
+        <v>6.858224331456153</v>
       </c>
       <c r="N4" t="n">
-        <v>80.15698596509228</v>
+        <v>79.65904192222636</v>
       </c>
       <c r="O4" t="n">
-        <v>8.95304339122135</v>
+        <v>8.925191422161564</v>
       </c>
       <c r="P4" t="n">
-        <v>439.6819663837242</v>
+        <v>439.6812356877825</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16340,7 +16433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E483"/>
+  <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29005,6 +29098,87 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-35.018251983068716,173.859216920022</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-35.01886382500224,173.85968294104583</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-35.018733843211606,173.86081893011763</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-35.018226052765904,173.85926088138365</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-35.018800478586314,173.85975667060916</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-35.01871225211544,173.8608359846308</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-35.01824800218628,173.85922366907948</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-35.01885581444007,173.85969226463294</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-35.01875054147647,173.86080574037797</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E486"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10451,6 +10451,90 @@
         <v>439.0142857142857</v>
       </c>
       <c r="E486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>381.2338461538461</v>
+      </c>
+      <c r="C487" t="n">
+        <v>376.43</v>
+      </c>
+      <c r="D487" t="n">
+        <v>439.1328571428572</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>376.5615384615385</v>
+      </c>
+      <c r="C488" t="n">
+        <v>378.0833333333333</v>
+      </c>
+      <c r="D488" t="n">
+        <v>445.1742857142857</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>375.6476923076923</v>
+      </c>
+      <c r="C489" t="n">
+        <v>375.2133333333333</v>
+      </c>
+      <c r="D489" t="n">
+        <v>441.7171428571429</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>379.4969230769231</v>
+      </c>
+      <c r="C490" t="n">
+        <v>373.96</v>
+      </c>
+      <c r="D490" t="n">
+        <v>442.7914285714286</v>
+      </c>
+      <c r="E490" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10467,7 +10551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16045,6 +16129,46 @@
       </c>
       <c r="B557" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -16218,28 +16342,28 @@
         <v>0.0688</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01411640593966377</v>
+        <v>-0.01314360393570313</v>
       </c>
       <c r="J2" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K2" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001832828881892512</v>
+        <v>0.0001616702637937673</v>
       </c>
       <c r="M2" t="n">
-        <v>5.864737365793789</v>
+        <v>5.831776323310536</v>
       </c>
       <c r="N2" t="n">
-        <v>60.00773267432999</v>
+        <v>59.52826820200378</v>
       </c>
       <c r="O2" t="n">
-        <v>7.746465818315471</v>
+        <v>7.715456448066036</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0193056792861</v>
+        <v>378.0095646097346</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16296,28 +16420,28 @@
         <v>0.0672</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05282759253243334</v>
+        <v>-0.05266305067129368</v>
       </c>
       <c r="J3" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K3" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002005435723095528</v>
+        <v>0.002028952308306242</v>
       </c>
       <c r="M3" t="n">
-        <v>6.69487278357408</v>
+        <v>6.647568826437518</v>
       </c>
       <c r="N3" t="n">
-        <v>77.34577934898397</v>
+        <v>76.68481760979543</v>
       </c>
       <c r="O3" t="n">
-        <v>8.79464492455403</v>
+        <v>8.756986788262012</v>
       </c>
       <c r="P3" t="n">
-        <v>377.1872001891374</v>
+        <v>377.1855939613716</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16374,28 +16498,28 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06574949694709796</v>
+        <v>0.06710525172144857</v>
       </c>
       <c r="J4" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K4" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003006802763453664</v>
+        <v>0.003185994697522676</v>
       </c>
       <c r="M4" t="n">
-        <v>6.858224331456153</v>
+        <v>6.815192246816901</v>
       </c>
       <c r="N4" t="n">
-        <v>79.65904192222636</v>
+        <v>79.01438660684535</v>
       </c>
       <c r="O4" t="n">
-        <v>8.925191422161564</v>
+        <v>8.889003690338155</v>
       </c>
       <c r="P4" t="n">
-        <v>439.6812356877825</v>
+        <v>439.6677028495019</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16433,7 +16557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E486"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29179,6 +29303,114 @@
         </is>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-35.01823149667586,173.85925165196667</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-35.01883927230134,173.85971151821357</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-35.01874964499787,173.8608064484948</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-35.0182560447809,173.8592100339271</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-35.01882850471336,173.85972405072386</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-35.018703967787275,173.86084252830608</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-35.018260846087905,173.85920189394542</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-35.01884719602958,173.8597022956989</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-35.018730106083574,173.860821882025</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-35.018240622397144,173.85923618052846</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-35.018855358554404,173.85969279524355</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-35.018721983770384,173.86082829773025</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10535,6 +10535,67 @@
         <v>442.7914285714286</v>
       </c>
       <c r="E490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>384.8976923076923</v>
+      </c>
+      <c r="C491" t="n">
+        <v>380.5833333333333</v>
+      </c>
+      <c r="D491" t="n">
+        <v>445.4357142857143</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>375.5092307692308</v>
+      </c>
+      <c r="C492" t="n">
+        <v>371.02</v>
+      </c>
+      <c r="D492" t="n">
+        <v>439.63</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="n">
+        <v>344.3666666666667</v>
+      </c>
+      <c r="D493" t="n">
+        <v>421.7214285714285</v>
+      </c>
+      <c r="E493" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10551,7 +10612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16169,6 +16230,46 @@
       </c>
       <c r="B561" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -16342,28 +16443,28 @@
         <v>0.0688</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01314360393570313</v>
+        <v>-0.0110418883796619</v>
       </c>
       <c r="J2" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K2" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001616702637937673</v>
+        <v>0.0001148884741521972</v>
       </c>
       <c r="M2" t="n">
-        <v>5.831776323310536</v>
+        <v>5.826550280744261</v>
       </c>
       <c r="N2" t="n">
-        <v>59.52826820200378</v>
+        <v>59.39223051324844</v>
       </c>
       <c r="O2" t="n">
-        <v>7.715456448066036</v>
+        <v>7.706635485946409</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0095646097346</v>
+        <v>377.9884794386516</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16420,28 +16521,28 @@
         <v>0.0672</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05266305067129368</v>
+        <v>-0.06569536489035822</v>
       </c>
       <c r="J3" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K3" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002028952308306242</v>
+        <v>0.003104876483470798</v>
       </c>
       <c r="M3" t="n">
-        <v>6.647568826437518</v>
+        <v>6.699102193104327</v>
       </c>
       <c r="N3" t="n">
-        <v>76.68481760979543</v>
+        <v>78.43156013732712</v>
       </c>
       <c r="O3" t="n">
-        <v>8.756986788262012</v>
+        <v>8.85615944624571</v>
       </c>
       <c r="P3" t="n">
-        <v>377.1855939613716</v>
+        <v>377.3157494708219</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16498,28 +16599,28 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06710525172144857</v>
+        <v>0.05999587833855301</v>
       </c>
       <c r="J4" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K4" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003185994697522676</v>
+        <v>0.002553658966178429</v>
       </c>
       <c r="M4" t="n">
-        <v>6.815192246816901</v>
+        <v>6.828184026742051</v>
       </c>
       <c r="N4" t="n">
-        <v>79.01438660684535</v>
+        <v>79.37654185838305</v>
       </c>
       <c r="O4" t="n">
-        <v>8.889003690338155</v>
+        <v>8.909351371361613</v>
       </c>
       <c r="P4" t="n">
-        <v>439.6677028495019</v>
+        <v>439.7389314921345</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16557,7 +16658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29411,6 +29512,83 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-35.01821224697487,173.85928428723437</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-35.01881222307591,173.85974300108597</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-35.01870199121348,173.8608440895739</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-35.01826157355862,173.8592006606148</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-35.01887450575072,173.8596705095935</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-35.018745886268235,173.86080941746636</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-35.01904808944771,173.85946847277344</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-35.01888128689776,173.86070246606823</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10596,6 +10596,27 @@
         <v>421.7214285714285</v>
       </c>
       <c r="E493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>381.6323076923077</v>
+      </c>
+      <c r="C494" t="n">
+        <v>379.9833333333333</v>
+      </c>
+      <c r="D494" t="n">
+        <v>445.5085714285714</v>
+      </c>
+      <c r="E494" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10612,7 +10633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B565"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16270,6 +16291,16 @@
       </c>
       <c r="B565" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -16443,28 +16474,28 @@
         <v>0.0688</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0110418883796619</v>
+        <v>-0.009398022397135379</v>
       </c>
       <c r="J2" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K2" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001148884741521972</v>
+        <v>8.355929026204745e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.826550280744261</v>
+        <v>5.822187944346059</v>
       </c>
       <c r="N2" t="n">
-        <v>59.39223051324844</v>
+        <v>59.29629224953601</v>
       </c>
       <c r="O2" t="n">
-        <v>7.706635485946409</v>
+        <v>7.700408576792274</v>
       </c>
       <c r="P2" t="n">
-        <v>377.9884794386516</v>
+        <v>377.9718570649963</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16521,28 +16552,28 @@
         <v>0.0672</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06569536489035822</v>
+        <v>-0.06387557179449851</v>
       </c>
       <c r="J3" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K3" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003104876483470798</v>
+        <v>0.002947387904603804</v>
       </c>
       <c r="M3" t="n">
-        <v>6.699102193104327</v>
+        <v>6.693128312608162</v>
       </c>
       <c r="N3" t="n">
-        <v>78.43156013732712</v>
+        <v>78.30194899757082</v>
       </c>
       <c r="O3" t="n">
-        <v>8.85615944624571</v>
+        <v>8.848838850243053</v>
       </c>
       <c r="P3" t="n">
-        <v>377.3157494708219</v>
+        <v>377.2974780238464</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16599,28 +16630,28 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05999587833855301</v>
+        <v>0.06171512491151644</v>
       </c>
       <c r="J4" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K4" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002553658966178429</v>
+        <v>0.002712353523666056</v>
       </c>
       <c r="M4" t="n">
-        <v>6.828184026742051</v>
+        <v>6.821909457987331</v>
       </c>
       <c r="N4" t="n">
-        <v>79.37654185838305</v>
+        <v>79.24360577414073</v>
       </c>
       <c r="O4" t="n">
-        <v>8.909351371361613</v>
+        <v>8.901887764634012</v>
       </c>
       <c r="P4" t="n">
-        <v>439.7389314921345</v>
+        <v>439.7216181161739</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16658,7 +16689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29589,6 +29620,33 @@
         </is>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-35.018229403175305,173.85925520121552</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-35.01881613066916,173.85973845299975</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-35.01870144036506,173.8608445246813</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10617,6 +10617,27 @@
         <v>445.5085714285714</v>
       </c>
       <c r="E494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>379.0261538461539</v>
+      </c>
+      <c r="C495" t="n">
+        <v>377.01</v>
+      </c>
+      <c r="D495" t="n">
+        <v>437.8971428571429</v>
+      </c>
+      <c r="E495" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10633,7 +10654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B566"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16301,6 +16322,16 @@
       </c>
       <c r="B566" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -16689,7 +16720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29647,6 +29678,33 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-35.01824309579868,173.8592319872063</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-35.01883549496215,173.85971591469942</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-35.0187589878169,173.86079906872237</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -16505,28 +16505,28 @@
         <v>0.0688</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009398022397135379</v>
+        <v>-0.008854959118943897</v>
       </c>
       <c r="J2" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K2" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L2" t="n">
-        <v>8.355929026204745e-05</v>
+        <v>7.451454487417131e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.822187944346059</v>
+        <v>5.812262006176306</v>
       </c>
       <c r="N2" t="n">
-        <v>59.29629224953601</v>
+        <v>59.17103702183451</v>
       </c>
       <c r="O2" t="n">
-        <v>7.700408576792274</v>
+        <v>7.692271252486778</v>
       </c>
       <c r="P2" t="n">
-        <v>377.9718570649963</v>
+        <v>377.9663492852918</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16583,28 +16583,28 @@
         <v>0.0672</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06387557179449851</v>
+        <v>-0.06330167050636067</v>
       </c>
       <c r="J3" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K3" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002947387904603804</v>
+        <v>0.002907722326729312</v>
       </c>
       <c r="M3" t="n">
-        <v>6.693128312608162</v>
+        <v>6.681253612255591</v>
       </c>
       <c r="N3" t="n">
-        <v>78.30194899757082</v>
+        <v>78.13549574371865</v>
       </c>
       <c r="O3" t="n">
-        <v>8.848838850243053</v>
+        <v>8.839428473816543</v>
       </c>
       <c r="P3" t="n">
-        <v>377.2974780238464</v>
+        <v>377.2916983240705</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16661,28 +16661,28 @@
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06171512491151644</v>
+        <v>0.06031013877824998</v>
       </c>
       <c r="J4" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K4" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002712353523666056</v>
+        <v>0.002601228456184601</v>
       </c>
       <c r="M4" t="n">
-        <v>6.821909457987331</v>
+        <v>6.815106466525902</v>
       </c>
       <c r="N4" t="n">
-        <v>79.24360577414073</v>
+        <v>79.09875977468344</v>
       </c>
       <c r="O4" t="n">
-        <v>8.901887764634012</v>
+        <v>8.893748353460618</v>
       </c>
       <c r="P4" t="n">
-        <v>439.7216181161739</v>
+        <v>439.7358097794357</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -16496,13 +16496,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0595</v>
+        <v>0.0603</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0688</v>
+        <v>0.0794</v>
       </c>
       <c r="I2" t="n">
         <v>-0.008870087690819871</v>
@@ -16574,13 +16574,13 @@
         <v>0.5030113177286522</v>
       </c>
       <c r="F3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.06</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.0568</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.0672</v>
+        <v>0.0793</v>
       </c>
       <c r="I3" t="n">
         <v>-0.06332237678086927</v>
@@ -16652,13 +16652,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0658</v>
+        <v>0.0505</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0.06028836413458336</v>

--- a/data/nzd0050/nzd0050.xlsx
+++ b/data/nzd0050/nzd0050.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E498"/>
+  <dimension ref="A1:E499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10895,6 +10895,27 @@
       <c r="E498" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>376.4</v>
+      </c>
+      <c r="C499" t="n">
+        <v>372.22</v>
+      </c>
+      <c r="D499" t="n">
+        <v>438.98</v>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B571"/>
+  <dimension ref="A1:B572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16627,6 +16648,16 @@
       </c>
       <c r="B571" t="n">
         <v>-0.12</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -16797,31 +16828,31 @@
         <v>0.0607</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0799</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03133304797287167</v>
+        <v>-0.03163380977096967</v>
       </c>
       <c r="J2" t="n">
+        <v>498</v>
+      </c>
+      <c r="K2" t="n">
         <v>497</v>
       </c>
-      <c r="K2" t="n">
-        <v>496</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.006268084562000453</v>
+        <v>0.00641421564788891</v>
       </c>
       <c r="M2" t="n">
-        <v>2.313198678615136</v>
+        <v>2.31006075420034</v>
       </c>
       <c r="N2" t="n">
-        <v>8.936079605285709</v>
+        <v>8.919329001371697</v>
       </c>
       <c r="O2" t="n">
-        <v>2.9893276175899</v>
+        <v>2.986524569021942</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0080438049608</v>
+        <v>378.011059760578</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16872,34 +16903,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0605</v>
+        <v>0.0603</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0796</v>
+        <v>0.0793</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07560496247202111</v>
+        <v>-0.07665966713601427</v>
       </c>
       <c r="J3" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K3" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0288126983573459</v>
+        <v>0.02968046678008363</v>
       </c>
       <c r="M3" t="n">
-        <v>2.550696276487647</v>
+        <v>2.550704252884719</v>
       </c>
       <c r="N3" t="n">
-        <v>11.04098892136724</v>
+        <v>11.03390015096013</v>
       </c>
       <c r="O3" t="n">
-        <v>3.322798357012842</v>
+        <v>3.321731498926446</v>
       </c>
       <c r="P3" t="n">
-        <v>376.9542411818838</v>
+        <v>376.9648257131682</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16950,34 +16981,34 @@
         <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0507</v>
+        <v>0.0506</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0813</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02944665207877221</v>
+        <v>0.02872228501193123</v>
       </c>
       <c r="J4" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K4" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005209700747317636</v>
+        <v>0.004974976085601379</v>
       </c>
       <c r="M4" t="n">
-        <v>2.364717013640029</v>
+        <v>2.363741228266551</v>
       </c>
       <c r="N4" t="n">
-        <v>9.488092744657321</v>
+        <v>9.476154309804674</v>
       </c>
       <c r="O4" t="n">
-        <v>3.0802747839531</v>
+        <v>3.078336289264815</v>
       </c>
       <c r="P4" t="n">
-        <v>440.0927195391525</v>
+        <v>440.0999889541292</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17015,7 +17046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E498"/>
+  <dimension ref="A1:E499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30465,6 +30496,33 @@
         </is>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-35.01825689349682,173.85920859504154</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-35.018866690569034,173.85967960577847</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-35.018750800699195,173.86080553562132</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
